--- a/학습자료/단답형/영어_유의어_기출.xlsx
+++ b/학습자료/단답형/영어_유의어_기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,6 +1027,248 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>extinction</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>disappearance</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>우울, 불경기</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>efficiency</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>효율, 효능</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>조심</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>damage</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>손해, 손상</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>prize</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>complication</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>복잡</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>fall on</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>call for</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>기출</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Day03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/영어_유의어_기출.xlsx
+++ b/학습자료/단답형/영어_유의어_기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>질문2</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>대답</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>대답</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
         </is>
       </c>
     </row>
@@ -476,6 +481,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>in conjunction with*</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +508,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>in combination with*</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +535,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>in comparison with*</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,6 +562,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>in place of*</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +589,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>in case of*</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>pervasive*</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -608,6 +643,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ubiquitous*</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -630,6 +670,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>prevalent*</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -652,6 +697,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>deceptive*</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -674,6 +724,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>persuasive*</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -696,6 +751,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>disastrous*</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -718,6 +778,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>vex*</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -740,6 +805,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>annoy*</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -762,6 +832,11 @@
           <t>Day01</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>callous*</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -784,6 +859,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>reputable*</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -806,6 +886,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>prestigious*</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -828,6 +913,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>confident*</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -850,6 +940,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>line up*</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -872,6 +967,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>give out*</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -894,6 +994,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>carry on*</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -916,6 +1021,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>break out*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -938,6 +1048,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>gratification*</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -960,6 +1075,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>satisfaction*</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -982,6 +1102,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>liveliness*</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1004,6 +1129,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>confidence*</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1026,6 +1156,11 @@
           <t>Day02</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>tranquility*</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1048,6 +1183,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>extinction*</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1070,6 +1210,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>disappearance*</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1092,6 +1237,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>depression*</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1114,6 +1264,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>efficiency*</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1136,6 +1291,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>caution*</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1158,6 +1318,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>fix*</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1180,6 +1345,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>damage*</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1202,6 +1372,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>prize*</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1224,6 +1399,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>complication*</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1246,6 +1426,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>fall on*</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1266,6 +1451,11 @@
       <c r="D38" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>call for*</t>
         </is>
       </c>
     </row>
